--- a/pythonProject16/Книга 3 (1).xlsx
+++ b/pythonProject16/Книга 3 (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="15" yWindow="1080" windowWidth="18855" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Clas</t>
   </si>
@@ -50,9 +50,6 @@
     <t>favoritefood</t>
   </si>
   <si>
-    <t>favoritedrinks</t>
-  </si>
-  <si>
     <t>Denisov</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>sushi</t>
   </si>
   <si>
-    <t>cola</t>
-  </si>
-  <si>
     <t>Dovbeta</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>pizza</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>Kaufman</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>pasta</t>
   </si>
   <si>
-    <t>sprite</t>
-  </si>
-  <si>
     <t>Ogii</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>vegetables</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>Vekit</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
     <t>cake</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>Ivanova</t>
   </si>
   <si>
@@ -122,7 +104,7 @@
     <t>chocolate</t>
   </si>
   <si>
-    <t>kvass</t>
+    <t>monthofbirth</t>
   </si>
 </sst>
 </file>
@@ -497,13 +479,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
@@ -520,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -529,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -540,19 +522,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -563,19 +545,19 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -586,19 +568,19 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -609,19 +591,19 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -632,19 +614,19 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -655,19 +637,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
